--- a/dat/OND2017_SeedMaturity.xlsx
+++ b/dat/OND2017_SeedMaturity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackguido/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charrua/Box Sync/Kenya/maize-Toff/dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1283EB49-04C8-4347-8FDF-F6ACA59AAECE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625C6589-ED3A-084F-99CB-10F9589EAF8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2460" windowWidth="26440" windowHeight="15040" xr2:uid="{8456E600-3B32-564B-BD06-C55EF493E506}"/>
+    <workbookView xWindow="1380" yWindow="1080" windowWidth="26440" windowHeight="15040" xr2:uid="{8456E600-3B32-564B-BD06-C55EF493E506}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2836,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B876296F-A2BE-EC41-A4AB-0E2147DEA2DF}">
   <dimension ref="A1:O606"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="D486" sqref="D486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
